--- a/data/trans_dic/P55_2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P55_2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse una comida de carne, pollo o pescado al menos cada dos días</t>
+          <t>Población que no puede permitirse una comida de carne, pollo o pescado al menos cada dos días (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>94,71%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>90,5%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>96,48%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>89,23%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>96,45%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>93,26%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>92,6%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>96,8%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>92,1%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>96,75%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>93,95%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>91,57%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>90,7%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>95,67; 98,32</t>
+          <t>95,52; 98,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,77</t>
+          <t>92,13; 96,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,08; 97,6</t>
+          <t>87,86; 92,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,41; 94,27</t>
+          <t>86,34; 91,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,84; 97,62</t>
+          <t>94,98; 97,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,96; 92,86</t>
+          <t>90,88; 95,19</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>90,23; 94,24</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>90,18; 93,83</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>95,79; 97,55</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>92,39; 95,4</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>89,95; 93,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>88,95; 92,1</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>95,8%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>93,68%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>95,03%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>94,12%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>94,62%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>91,82%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>93,03%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>96,05%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>95,57%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>95,89%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>93,81%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>93,37%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>94,81%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,64; 98,39</t>
+          <t>94,87; 98,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,41; 96,38</t>
+          <t>93,61; 97,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,14; 96,85</t>
+          <t>89,72; 96,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88,37; 96,18</t>
+          <t>90,87; 96,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,39; 97,38</t>
+          <t>90,09; 96,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>90,41; 95,47</t>
+          <t>85,45; 94,62</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>88,19; 95,98</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>92,13; 97,76</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>93,84; 97,04</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>90,58; 95,47</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>90,68; 95,67</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>92,65; 96,59</t>
         </is>
       </c>
     </row>
@@ -761,19 +937,19 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>95,83%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>97,31%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
@@ -781,10 +957,40 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>95,24%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>98,22%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>95,54%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -799,19 +1005,19 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>96,94; 100,0</t>
+          <t>97,15; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>90,15; 98,81</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>93,55; 99,27</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -819,10 +1025,40 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>95,99; 99,25</t>
+          <t>93,17; 99,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>89,65; 98,21</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>96,44; 99,26</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>91,84; 97,53</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>95,29%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>91,26%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>96,02%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>90,42%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>95,85%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>92,93%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>92,69%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>96,67%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>92,86%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>96,59%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>94,08%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>91,98%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>91,65%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,26; 98,22</t>
+          <t>96,13; 98,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,9; 93,01</t>
+          <t>93,87; 96,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,81; 97,07</t>
+          <t>89,22; 93,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,78; 94,24</t>
+          <t>87,84; 92,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,89; 97,33</t>
+          <t>94,33; 96,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,6; 93,13</t>
+          <t>90,34; 94,42</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>90,79; 94,23</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>91,09; 94,28</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>95,63; 97,21</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>92,66; 95,11</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>90,41; 93,1</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>90,27; 92,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse una comida de carne, pollo o pescado al menos cada dos días (tasa de respuesta: 99,45%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>653.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>483.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>612.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>589.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>820.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>598.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>787.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>812.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1473.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1081.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1399.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1401.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1590046</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1525151</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>205106</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>199642</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1730963</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1668034</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>218024</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>216198</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3321010</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3193185</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>423129</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>415840</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1564557; 1606426</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1483598; 1553850</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>199134; 209686</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>193165; 204850</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1704523; 1750940</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1625361; 1702548</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>212433; 221878</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>211688; 220271</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3288160; 3348258</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3140178; 3242587</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>415639; 429885</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>407816; 422251</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>499.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>603.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>474.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1102.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>874.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>431.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>443.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1326737</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1321651</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>66510</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>67936</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1291429</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1262917</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>59588</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>63217</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2618166</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2584568</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>126097</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>131154</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1295594; 1344678</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1291492; 1345216</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>63697; 68545</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>65596; 69629</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1229505; 1316230</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1175316; 1301369</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>56491; 61479</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>60941; 64669</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2562426; 2649797</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2495501; 2630125</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>122467; 129204</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>128171; 133617</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>416637</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>402157</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>400668</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>386796</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>817305</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>788953</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>408253; 420226</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>378329; 414662</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>383781; 409215</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>364117; 398848</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>802516; 825971</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>758386; 805365</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1292.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>978.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>827.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1590.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1188.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1003.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1025.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2882.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2166.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1830.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1844.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3333420</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3248959</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>271616</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>267578</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3423060</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3317747</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>277612</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>279414</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6756480</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6566706</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>549228</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>546992</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3291381; 3360529</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3200589; 3290157</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>265555; 277043</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>259932; 273235</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3368883; 3457615</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3225280; 3370937</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>271914; 282213</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>274077; 283684</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6689565; 6799985</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>6467769; 6638113</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>539905; 555937</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>538733; 553963</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
